--- a/assets/design/WRLDC Tables.xlsx
+++ b/assets/design/WRLDC Tables.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagasudhir\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagasudhir\Documents\D Drive\POSOCO\IT\CSharpProjects\GridElementsService\assets\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7965" firstSheet="9" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Generating Station" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="246">
   <si>
     <t>Generating Station</t>
   </si>
@@ -787,6 +787,9 @@
   </si>
   <si>
     <t>ToSubStation</t>
+  </si>
+  <si>
+    <t>FK(ElementType)</t>
   </si>
 </sst>
 </file>
@@ -1214,7 +1217,7 @@
   </sheetPr>
   <dimension ref="B2:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -2238,11 +2241,13 @@
   </sheetPr>
   <dimension ref="B2:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
@@ -2277,6 +2282,9 @@
     <row r="6" spans="2:3">
       <c r="B6" s="2" t="s">
         <v>166</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="2:3">

--- a/assets/design/WRLDC Tables.xlsx
+++ b/assets/design/WRLDC Tables.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagasudhir\Documents\D Drive\POSOCO\IT\CSharpProjects\GridElementsService\assets\design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dotnet_projects\GridElementsService\assets\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7965" firstSheet="9" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7965" firstSheet="14" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Generating Station" sheetId="1" r:id="rId1"/>
@@ -799,7 +799,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -842,8 +842,15 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -872,6 +879,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -966,10 +978,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -997,8 +1010,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1213,15 +1228,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor theme="6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B2:C15"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
@@ -2174,6 +2192,7 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor theme="7"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B3:D5"/>
@@ -2181,6 +2200,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:4">
       <c r="B3" s="1" t="s">
@@ -2211,6 +2233,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor theme="7"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B3:B4"/>
@@ -2231,6 +2254,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2242,11 +2266,12 @@
   <dimension ref="B2:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
+    <col min="2" max="2" width="33.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2332,7 +2357,7 @@
       </c>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="23" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2395,7 +2420,9 @@
   </sheetPr>
   <dimension ref="B3:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -2558,6 +2585,7 @@
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor theme="7"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B3:C6"/>
@@ -2595,6 +2623,7 @@
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor theme="6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B2:C5"/>
@@ -2677,6 +2706,7 @@
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor theme="7"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B2:C6"/>
@@ -2730,6 +2760,7 @@
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor theme="7"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B2:C4"/>
@@ -2764,6 +2795,7 @@
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor theme="7"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B2:C4"/>
@@ -2798,6 +2830,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor theme="7"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B3:B4"/>
@@ -2824,6 +2857,7 @@
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor theme="7"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B2:D3"/>
@@ -3554,6 +3588,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor theme="7"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B3:B4"/>
@@ -3580,6 +3615,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor theme="7"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B3:C4"/>
@@ -3587,6 +3623,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" s="2" t="s">
@@ -3612,15 +3652,19 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor theme="6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B2:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
@@ -3789,9 +3833,14 @@
   </sheetPr>
   <dimension ref="B2:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" s="1" t="s">

--- a/assets/design/WRLDC Tables.xlsx
+++ b/assets/design/WRLDC Tables.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dotnet_projects\GridElementsService\assets\design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagasudhir\Documents\D Drive\POSOCO\IT\CSharpProjects\GridElementsService\assets\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7965" firstSheet="14" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7965" firstSheet="18" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="Generating Station" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,8 @@
     <sheet name="MeasurementTypes" sheetId="22" r:id="rId22"/>
     <sheet name="metrics" sheetId="23" r:id="rId23"/>
     <sheet name="DataSource" sheetId="24" r:id="rId24"/>
-    <sheet name="Ownerandelement relation" sheetId="25" r:id="rId25"/>
-    <sheet name="OwnerAndSubstation" sheetId="26" r:id="rId26"/>
+    <sheet name="ElementOwner" sheetId="25" r:id="rId25"/>
+    <sheet name="SubstationOwner" sheetId="26" r:id="rId26"/>
     <sheet name="Location" sheetId="27" r:id="rId27"/>
     <sheet name="State" sheetId="28" r:id="rId28"/>
     <sheet name="Voltage Level" sheetId="29" r:id="rId29"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="246">
   <si>
     <t>Generating Station</t>
   </si>
@@ -850,7 +850,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -884,6 +884,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -982,7 +988,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1011,6 +1017,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1228,13 +1235,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="6"/>
+    <tabColor rgb="FF00B050"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B2:C15"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2144,11 +2151,14 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor rgb="FF00B050"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B2:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
@@ -2165,7 +2175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" ht="12.75">
       <c r="B4" s="2" t="s">
         <v>155</v>
       </c>
@@ -2173,14 +2183,14 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B5" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="24" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2261,12 +2271,13 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor rgb="FF00B050"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B2:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2623,7 +2634,7 @@
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="6"/>
+    <tabColor rgb="FF00B050"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B2:C5"/>
@@ -2673,7 +2684,9 @@
   </sheetPr>
   <dimension ref="B2:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
@@ -2763,9 +2776,11 @@
     <tabColor theme="7"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:C4"/>
+  <dimension ref="B2:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
@@ -2785,6 +2800,14 @@
       </c>
       <c r="C4" s="2" t="s">
         <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B5" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -3652,13 +3675,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="6"/>
+    <tabColor rgb="FF00B050"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B2:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>

--- a/assets/design/WRLDC Tables.xlsx
+++ b/assets/design/WRLDC Tables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7965" firstSheet="18" activeTab="27"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7965" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Generating Station" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="248">
   <si>
     <t>Generating Station</t>
   </si>
@@ -790,6 +790,12 @@
   </si>
   <si>
     <t>FK(ElementType)</t>
+  </si>
+  <si>
+    <t>FilterBankNumber</t>
+  </si>
+  <si>
+    <t>int</t>
   </si>
 </sst>
 </file>
@@ -2162,12 +2168,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:4" ht="12.75">
       <c r="B2" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" ht="12.75">
       <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
@@ -2680,6 +2686,7 @@
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor rgb="FF00B050"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B2:C4"/>
@@ -2778,23 +2785,23 @@
   </sheetPr>
   <dimension ref="B2:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" ht="12.75">
       <c r="B2" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" ht="12.75">
       <c r="B3" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" ht="12.75">
       <c r="B4" s="2" t="s">
         <v>216</v>
       </c>
@@ -2913,13 +2920,19 @@
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor rgb="FF00B050"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B3:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" s="1" t="s">
@@ -2928,10 +2941,10 @@
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="2" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>2</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -2974,6 +2987,7 @@
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor rgb="FF00B050"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B2:C4"/>
@@ -3771,7 +3785,9 @@
   </sheetPr>
   <dimension ref="B2:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>

--- a/assets/design/WRLDC Tables.xlsx
+++ b/assets/design/WRLDC Tables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7965" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7965" firstSheet="24" activeTab="32"/>
   </bookViews>
   <sheets>
     <sheet name="Generating Station" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="248">
   <si>
     <t>Generating Station</t>
   </si>
@@ -805,7 +805,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -851,6 +851,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -994,7 +1008,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1024,6 +1038,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1351,11 +1368,14 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor rgb="FF00B050"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B2:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
@@ -1444,11 +1464,14 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor rgb="FF00B050"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B2:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1559,11 +1582,14 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor rgb="FF00B050"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B2:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1690,6 +1716,7 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor rgb="FF00B050"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B2:C7"/>
@@ -1932,11 +1959,14 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor rgb="FF00B050"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B2:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -2079,11 +2109,14 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor rgb="FF00B050"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B2:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -2280,10 +2313,10 @@
     <tabColor rgb="FF00B050"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:C24"/>
+  <dimension ref="B2:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2386,42 +2419,50 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="2" t="s">
-        <v>177</v>
+    <row r="16" spans="2:3">
+      <c r="B16" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="10" t="s">
+    <row r="25" spans="2:3">
+      <c r="B25" s="10" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2926,7 +2967,7 @@
   <dimension ref="B3:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2956,10 +2997,10 @@
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="25" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2981,6 +3022,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3032,7 +3074,7 @@
   </sheetPr>
   <dimension ref="B2:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -3781,12 +3823,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor rgb="FF00B050"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B2:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3824,26 +3867,26 @@
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="25" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="25" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="25" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3868,12 +3911,13 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor rgb="FF00B050"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3903,10 +3947,10 @@
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="25" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3926,6 +3970,7 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor rgb="FF00B050"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B2:C10"/>
